--- a/data_input/CR/CRR_Nov2023.xlsx
+++ b/data_input/CR/CRR_Nov2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E5885-4989-409B-A55B-2B5EF41BDA23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3E50E6-CC14-4236-A86C-EC421FFD3E15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1305" windowWidth="13425" windowHeight="13395" tabRatio="601" firstSheet="10" activeTab="10" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="9" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="377">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1464,7 +1461,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1502,7 +1499,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1540,7 +1537,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2419,7 +2416,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2">
         <v>750854232</v>
@@ -2428,7 +2425,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -2437,10 +2434,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -2530,7 +2527,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2542,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3">
         <v>750847833</v>
@@ -2598,7 +2595,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -2607,7 +2604,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243506</v>
@@ -2700,7 +2697,7 @@
         <v>137</v>
       </c>
       <c r="AL3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -2712,7 +2709,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2759,7 +2756,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>750847833</v>
@@ -2768,7 +2765,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -2777,7 +2774,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="5">
         <v>243506</v>
@@ -2858,19 +2855,19 @@
         <v>18.649999999999999</v>
       </c>
       <c r="AH4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI4">
         <v>0.95</v>
       </c>
       <c r="AJ4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK4" t="s">
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -2879,7 +2876,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2926,7 +2923,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2964,7 +2961,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2981,97 +2978,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3143,7 +3140,7 @@
   <dimension ref="A1:AX25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3346,7 +3343,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3393,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3434,7 +3431,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3466,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3477,97 +3474,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3632,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E13A5BC-81A9-424F-8AF7-7859F2334B8B}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3727,43 +3724,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="7">
         <v>730004494</v>
@@ -3783,7 +3780,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -3792,16 +3789,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -3816,31 +3813,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" t="s">
         <v>188</v>
       </c>
-      <c r="U2" t="s">
-        <v>189</v>
-      </c>
       <c r="V2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X2">
         <v>798.79</v>
@@ -3858,7 +3855,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3870,13 +3867,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3891,31 +3888,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>750972339</v>
@@ -3932,7 +3929,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -3941,7 +3938,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243264</v>
@@ -3950,7 +3947,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -3965,31 +3962,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>1.25</v>
@@ -4007,7 +4004,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4019,13 +4016,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4040,31 +4037,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4072,7 +4069,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4">
         <v>490000217</v>
@@ -4081,7 +4078,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -4090,16 +4087,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -4114,31 +4111,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>1.29</v>
@@ -4156,7 +4153,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4165,13 +4162,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4186,31 +4183,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5">
         <v>750428998</v>
@@ -4227,7 +4224,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -4236,16 +4233,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4260,31 +4257,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" t="s">
         <v>185</v>
       </c>
-      <c r="T5" t="s">
-        <v>186</v>
-      </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>22.97</v>
@@ -4302,16 +4299,16 @@
         <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4326,31 +4323,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4358,7 +4355,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6">
         <v>380004172</v>
@@ -4367,7 +4364,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -4376,16 +4373,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4400,31 +4397,31 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>2.2200000000000002</v>
@@ -4442,40 +4439,40 @@
         <v>139</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4484,102 +4481,102 @@
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H7" s="5"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4657,7 @@
   <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4720,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4756,43 +4753,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4803,16 +4800,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -4821,7 +4818,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5">
         <v>243597</v>
@@ -4830,7 +4827,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -4845,31 +4842,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>1.35</v>
@@ -4887,7 +4884,7 @@
         <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4899,13 +4896,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4920,31 +4917,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4952,7 +4949,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3">
         <v>750428729</v>
@@ -4961,7 +4958,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4976,7 +4973,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -4991,31 +4988,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
         <v>188</v>
       </c>
-      <c r="U3" t="s">
-        <v>189</v>
-      </c>
       <c r="V3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X3">
         <v>3.39</v>
@@ -5033,7 +5030,7 @@
         <v>139</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -5045,13 +5042,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -5066,31 +5063,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5098,7 +5095,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>750748174</v>
@@ -5107,7 +5104,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -5116,16 +5113,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -5140,31 +5137,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>3.47</v>
@@ -5182,7 +5179,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5191,13 +5188,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5212,31 +5209,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5244,7 +5241,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="8">
         <v>750428729</v>
@@ -5253,7 +5250,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -5268,7 +5265,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -5283,31 +5280,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>4.41</v>
@@ -5325,16 +5322,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5349,31 +5346,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5381,13 +5378,13 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5396,13 +5393,13 @@
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -5417,31 +5414,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" t="s">
+        <v>183</v>
+      </c>
+      <c r="T6" t="s">
         <v>164</v>
       </c>
-      <c r="P6" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R6" t="s">
-        <v>177</v>
-      </c>
-      <c r="S6" t="s">
-        <v>184</v>
-      </c>
-      <c r="T6" t="s">
-        <v>165</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X6">
         <v>2.06</v>
@@ -5459,40 +5456,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5500,16 +5497,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
         <v>243</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -5524,7 +5521,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5539,31 +5536,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.98</v>
@@ -5581,24 +5578,24 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -5607,13 +5604,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -5628,31 +5625,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>1.02</v>
@@ -5670,21 +5667,21 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5693,13 +5690,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -5714,31 +5711,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X9">
         <v>3</v>
@@ -5756,15 +5753,15 @@
         <v>139</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="8">
         <v>530003202</v>
@@ -5773,7 +5770,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5782,16 +5779,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -5806,31 +5803,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>7.59</v>
@@ -5848,15 +5845,15 @@
         <v>139</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11">
         <v>520004795</v>
@@ -5865,7 +5862,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -5874,7 +5871,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="5">
         <v>243322</v>
@@ -5883,7 +5880,7 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -5898,31 +5895,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X11">
         <v>2.4300000000000002</v>
@@ -5940,15 +5937,15 @@
         <v>140</v>
       </c>
       <c r="AC11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <v>750952944</v>
@@ -5957,7 +5954,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -5966,16 +5963,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -5990,31 +5987,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -6032,15 +6029,15 @@
         <v>137</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13">
         <v>750423897</v>
@@ -6049,7 +6046,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -6058,13 +6055,13 @@
         <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -6079,31 +6076,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X13">
         <v>1.95</v>
@@ -6121,24 +6118,24 @@
         <v>137</v>
       </c>
       <c r="AC13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
         <v>289</v>
-      </c>
-      <c r="B14" t="s">
-        <v>290</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -6147,16 +6144,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -6171,31 +6168,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X14">
         <v>3.64</v>
@@ -6213,24 +6210,24 @@
         <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
         <v>291</v>
-      </c>
-      <c r="B15" t="s">
-        <v>292</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -6239,13 +6236,13 @@
         <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -6260,31 +6257,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>2.78</v>
@@ -6302,15 +6299,15 @@
         <v>140</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16">
         <v>610012930</v>
@@ -6319,7 +6316,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -6328,7 +6325,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="5">
         <v>243295</v>
@@ -6337,7 +6334,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -6352,31 +6349,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V16" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
         <v>198</v>
-      </c>
-      <c r="W16" t="s">
-        <v>199</v>
       </c>
       <c r="X16">
         <v>10.91</v>
@@ -6394,24 +6391,24 @@
         <v>140</v>
       </c>
       <c r="AC16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
         <v>295</v>
-      </c>
-      <c r="B17" t="s">
-        <v>296</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
@@ -6420,7 +6417,7 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" s="5">
         <v>243264</v>
@@ -6429,7 +6426,7 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6444,31 +6441,31 @@
         <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
         <v>198</v>
-      </c>
-      <c r="W17" t="s">
-        <v>199</v>
       </c>
       <c r="X17">
         <v>1.01</v>
@@ -6486,15 +6483,15 @@
         <v>139</v>
       </c>
       <c r="AC17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B18">
         <v>750457147</v>
@@ -6503,7 +6500,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -6518,7 +6515,7 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
@@ -6533,31 +6530,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T18" t="s">
+        <v>187</v>
+      </c>
+      <c r="U18" t="s">
         <v>188</v>
       </c>
-      <c r="U18" t="s">
-        <v>189</v>
-      </c>
       <c r="V18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X18">
         <v>3.83</v>
@@ -6575,15 +6572,15 @@
         <v>138</v>
       </c>
       <c r="AC18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19">
         <v>750649355</v>
@@ -6592,7 +6589,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6607,7 +6604,7 @@
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -6622,31 +6619,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X19">
         <v>1.46</v>
@@ -6664,21 +6661,21 @@
         <v>137</v>
       </c>
       <c r="AC19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6693,7 +6690,7 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
         <v>58</v>
@@ -6708,31 +6705,31 @@
         <v>78</v>
       </c>
       <c r="O20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" t="s">
-        <v>172</v>
-      </c>
       <c r="R20" t="s">
+        <v>179</v>
+      </c>
+      <c r="S20" t="s">
         <v>180</v>
       </c>
-      <c r="S20" t="s">
-        <v>181</v>
-      </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X20">
         <v>5</v>
@@ -6750,24 +6747,24 @@
         <v>138</v>
       </c>
       <c r="AC20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN20" t="s">
         <v>221</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6776,16 +6773,16 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6800,31 +6797,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X21">
         <v>1.68</v>
@@ -6842,21 +6839,21 @@
         <v>140</v>
       </c>
       <c r="AC21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -6871,7 +6868,7 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -6886,31 +6883,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T22" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" t="s">
         <v>188</v>
       </c>
-      <c r="U22" t="s">
-        <v>189</v>
-      </c>
       <c r="V22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X22">
         <v>2.41</v>
@@ -6928,15 +6925,15 @@
         <v>138</v>
       </c>
       <c r="AC22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23">
         <v>610023006</v>
@@ -6945,7 +6942,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -6954,13 +6951,13 @@
         <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>56</v>
@@ -6975,31 +6972,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
+        <v>197</v>
+      </c>
+      <c r="W23" t="s">
         <v>198</v>
-      </c>
-      <c r="W23" t="s">
-        <v>199</v>
       </c>
       <c r="X23">
         <v>3.51</v>
@@ -7017,15 +7014,15 @@
         <v>138</v>
       </c>
       <c r="AC23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24">
         <v>750273837</v>
@@ -7034,7 +7031,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -7049,7 +7046,7 @@
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
         <v>56</v>
@@ -7064,31 +7061,31 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
+        <v>187</v>
+      </c>
+      <c r="U24" t="s">
         <v>188</v>
       </c>
-      <c r="U24" t="s">
-        <v>189</v>
-      </c>
       <c r="V24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X24">
         <v>1.88</v>
@@ -7106,21 +7103,21 @@
         <v>139</v>
       </c>
       <c r="AC24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -7135,7 +7132,7 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s">
         <v>57</v>
@@ -7150,31 +7147,31 @@
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X25">
         <v>2.13</v>
@@ -7192,15 +7189,15 @@
         <v>141</v>
       </c>
       <c r="AC25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26">
         <v>750904883</v>
@@ -7209,7 +7206,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
@@ -7218,16 +7215,16 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I26" t="s">
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
         <v>57</v>
@@ -7242,31 +7239,31 @@
         <v>77</v>
       </c>
       <c r="O26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X26">
         <v>8.6999999999999993</v>
@@ -7284,12 +7281,12 @@
         <v>139</v>
       </c>
       <c r="AC26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B27">
         <v>750797278</v>
@@ -7298,7 +7295,7 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
         <v>44</v>
@@ -7307,16 +7304,16 @@
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I27" t="s">
         <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s">
         <v>56</v>
@@ -7331,31 +7328,31 @@
         <v>77</v>
       </c>
       <c r="O27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S27" t="s">
+        <v>184</v>
+      </c>
+      <c r="T27" t="s">
         <v>185</v>
       </c>
-      <c r="T27" t="s">
-        <v>186</v>
-      </c>
       <c r="U27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X27">
         <v>1.46</v>
@@ -7373,18 +7370,18 @@
         <v>141</v>
       </c>
       <c r="AC27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -7393,13 +7390,13 @@
         <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I28" t="s">
         <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s">
         <v>57</v>
@@ -7414,31 +7411,31 @@
         <v>78</v>
       </c>
       <c r="O28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" t="s">
         <v>171</v>
       </c>
-      <c r="Q28" t="s">
-        <v>172</v>
-      </c>
       <c r="R28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X28">
         <v>2.86</v>
@@ -7456,21 +7453,21 @@
         <v>140</v>
       </c>
       <c r="AC28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
@@ -7479,16 +7476,16 @@
         <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
         <v>49</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s">
         <v>57</v>
@@ -7503,31 +7500,31 @@
         <v>77</v>
       </c>
       <c r="O29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V29" t="s">
+        <v>197</v>
+      </c>
+      <c r="W29" t="s">
         <v>198</v>
-      </c>
-      <c r="W29" t="s">
-        <v>199</v>
       </c>
       <c r="X29">
         <v>1.39</v>
@@ -7545,18 +7542,18 @@
         <v>137</v>
       </c>
       <c r="AC29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
@@ -7565,13 +7562,13 @@
         <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I30" t="s">
         <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s">
         <v>57</v>
@@ -7586,31 +7583,31 @@
         <v>76</v>
       </c>
       <c r="O30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V30" t="s">
+        <v>197</v>
+      </c>
+      <c r="W30" t="s">
         <v>198</v>
-      </c>
-      <c r="W30" t="s">
-        <v>199</v>
       </c>
       <c r="X30">
         <v>14.09</v>
@@ -7628,12 +7625,12 @@
         <v>140</v>
       </c>
       <c r="AC30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31">
         <v>750324685</v>
@@ -7642,7 +7639,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
@@ -7651,16 +7648,16 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I31" t="s">
         <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
         <v>57</v>
@@ -7675,31 +7672,31 @@
         <v>77</v>
       </c>
       <c r="O31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V31" t="s">
+        <v>197</v>
+      </c>
+      <c r="W31" t="s">
         <v>198</v>
-      </c>
-      <c r="W31" t="s">
-        <v>199</v>
       </c>
       <c r="X31">
         <v>2.58</v>
@@ -7717,12 +7714,12 @@
         <v>137</v>
       </c>
       <c r="AC31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B32">
         <v>750793422</v>
@@ -7731,7 +7728,7 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
@@ -7740,7 +7737,7 @@
         <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H32" s="5">
         <v>243537</v>
@@ -7749,7 +7746,7 @@
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s">
         <v>57</v>
@@ -7764,31 +7761,31 @@
         <v>75</v>
       </c>
       <c r="O32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X32">
         <v>1.65</v>
@@ -7806,7 +7803,7 @@
         <v>141</v>
       </c>
       <c r="AC32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7887,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7947,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7983,43 +7980,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -8030,7 +8027,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2">
         <v>550001382</v>
@@ -8039,7 +8036,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -8048,16 +8045,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -8072,31 +8069,31 @@
         <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>1.04</v>
@@ -8114,7 +8111,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -8126,13 +8123,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -8147,31 +8144,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -8179,16 +8176,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -8197,7 +8194,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="5">
         <v>243597</v>
@@ -8206,7 +8203,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -8221,31 +8218,31 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>2.39</v>
@@ -8263,7 +8260,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -8275,13 +8272,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -8296,31 +8293,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -8328,16 +8325,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -8352,7 +8349,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -8367,31 +8364,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>1.53</v>
@@ -8409,7 +8406,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -8418,13 +8415,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -8439,31 +8436,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -8471,7 +8468,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5">
         <v>750791403</v>
@@ -8480,7 +8477,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -8489,7 +8486,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5">
         <v>243264</v>
@@ -8498,7 +8495,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -8513,31 +8510,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" t="s">
         <v>185</v>
       </c>
-      <c r="T5" t="s">
-        <v>186</v>
-      </c>
       <c r="U5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>131.4</v>
@@ -8555,16 +8552,16 @@
         <v>140</v>
       </c>
       <c r="AC5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -8579,31 +8576,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -8611,7 +8608,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6">
         <v>750692480</v>
@@ -8620,7 +8617,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -8629,16 +8626,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -8653,31 +8650,31 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>1.1100000000000001</v>
@@ -8695,40 +8692,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8736,7 +8733,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7">
         <v>750959076</v>
@@ -8745,7 +8742,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -8754,13 +8751,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -8775,31 +8772,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X7">
         <v>2.27</v>
@@ -8817,18 +8814,18 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8">
         <v>750805397</v>
@@ -8837,7 +8834,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -8846,7 +8843,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="5">
         <v>243445</v>
@@ -8855,7 +8852,7 @@
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -8870,31 +8867,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" t="s">
         <v>185</v>
       </c>
-      <c r="T8" t="s">
-        <v>186</v>
-      </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>4.1500000000000004</v>
@@ -8912,15 +8909,15 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9">
         <v>750926540</v>
@@ -8929,7 +8926,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -8938,16 +8935,16 @@
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -8962,31 +8959,31 @@
         <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q9" t="s">
         <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" t="s">
         <v>188</v>
       </c>
-      <c r="U9" t="s">
-        <v>189</v>
-      </c>
       <c r="V9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X9">
         <v>67.83</v>
@@ -9004,21 +9001,21 @@
         <v>139</v>
       </c>
       <c r="AC9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -9027,13 +9024,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -9048,31 +9045,31 @@
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>2.13</v>
@@ -9090,15 +9087,15 @@
         <v>140</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11">
         <v>750690590</v>
@@ -9107,7 +9104,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
@@ -9116,16 +9113,16 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -9140,31 +9137,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X11">
         <v>4.79</v>
@@ -9182,21 +9179,21 @@
         <v>137</v>
       </c>
       <c r="AC11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -9211,7 +9208,7 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -9226,31 +9223,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>1.53</v>
@@ -9268,15 +9265,15 @@
         <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B13">
         <v>750407452</v>
@@ -9285,7 +9282,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -9294,13 +9291,13 @@
         <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -9315,31 +9312,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T13" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" t="s">
         <v>188</v>
       </c>
-      <c r="U13" t="s">
-        <v>189</v>
-      </c>
       <c r="V13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X13">
         <v>1.54</v>
@@ -9357,15 +9354,15 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14">
         <v>750641165</v>
@@ -9374,7 +9371,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -9383,16 +9380,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -9407,31 +9404,31 @@
         <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W14" t="s">
         <v>198</v>
-      </c>
-      <c r="W14" t="s">
-        <v>199</v>
       </c>
       <c r="X14">
         <v>1.1499999999999999</v>
@@ -9449,15 +9446,15 @@
         <v>137</v>
       </c>
       <c r="AC14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15">
         <v>750037505</v>
@@ -9466,7 +9463,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -9475,7 +9472,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H15" s="5">
         <v>243537</v>
@@ -9484,7 +9481,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -9499,31 +9496,31 @@
         <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X15">
         <v>0.1</v>
@@ -9541,21 +9538,21 @@
         <v>137</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -9564,13 +9561,13 @@
         <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
@@ -9585,31 +9582,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V16" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
         <v>198</v>
-      </c>
-      <c r="W16" t="s">
-        <v>199</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -9627,56 +9624,56 @@
         <v>140</v>
       </c>
       <c r="AC16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9935,13 +9932,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -10040,7 +10037,7 @@
         <v>138</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10052,7 +10049,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3">
         <v>750899369</v>
@@ -10108,7 +10105,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -10117,7 +10114,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243566</v>
@@ -10210,7 +10207,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10222,7 +10219,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10275,7 +10272,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10322,7 +10319,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10360,7 +10357,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10377,97 +10374,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10717,7 +10714,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2">
         <v>750966001</v>
@@ -10726,7 +10723,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -10735,10 +10732,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -10828,7 +10825,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10840,7 +10837,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10896,7 +10893,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10949,7 +10946,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10996,7 +10993,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11034,7 +11031,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11051,97 +11048,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11391,7 +11388,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2">
         <v>750985530</v>
@@ -11400,7 +11397,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -11409,7 +11406,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" s="5">
         <v>243597</v>
@@ -11502,7 +11499,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11514,7 +11511,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11561,13 +11558,13 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -11666,7 +11663,7 @@
         <v>138</v>
       </c>
       <c r="AL3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11678,7 +11675,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11731,7 +11728,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11778,7 +11775,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11816,7 +11813,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11833,97 +11830,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12175,13 +12172,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -12190,7 +12187,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -12280,7 +12277,7 @@
         <v>138</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -12292,7 +12289,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -12339,7 +12336,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3">
         <v>680007962</v>
@@ -12348,7 +12345,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -12447,7 +12444,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12459,7 +12456,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12506,13 +12503,13 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -12521,7 +12518,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="5">
         <v>243264</v>
@@ -12614,7 +12611,7 @@
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -12623,7 +12620,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12667,7 +12664,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5">
         <v>750925051</v>
@@ -12676,7 +12673,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -12685,7 +12682,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="5">
         <v>243415</v>
@@ -12778,13 +12775,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12819,13 +12816,13 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -12834,7 +12831,7 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
@@ -12909,28 +12906,28 @@
         <v>1.8</v>
       </c>
       <c r="AG6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH6" t="s">
         <v>353</v>
       </c>
-      <c r="AH6" t="s">
-        <v>354</v>
-      </c>
       <c r="AI6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>353</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>354</v>
       </c>
       <c r="AK6" t="s">
         <v>141</v>
       </c>
       <c r="AL6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12947,97 +12944,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2">
         <v>750801021</v>
@@ -13296,7 +13293,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -13305,10 +13302,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -13398,7 +13395,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -13410,7 +13407,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -13457,13 +13454,13 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -13562,7 +13559,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -13574,7 +13571,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -13621,7 +13618,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4">
         <v>750897984</v>
@@ -13630,7 +13627,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -13639,7 +13636,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="5">
         <v>243295</v>
@@ -13732,7 +13729,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -13741,7 +13738,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -13785,13 +13782,13 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -13800,7 +13797,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -13890,13 +13887,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -13931,7 +13928,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6">
         <v>750801290</v>
@@ -13940,7 +13937,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -13949,10 +13946,10 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
@@ -14042,13 +14039,13 @@
         <v>141</v>
       </c>
       <c r="AL6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -14065,7 +14062,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7">
         <v>750801933</v>
@@ -14074,7 +14071,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -14083,10 +14080,10 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
@@ -14176,100 +14173,100 @@
         <v>141</v>
       </c>
       <c r="AL7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14497,7 +14494,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2">
         <v>750929907</v>
@@ -14506,7 +14503,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -14515,7 +14512,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243264</v>
@@ -14596,7 +14593,7 @@
         <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -14608,7 +14605,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -14655,7 +14652,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -14699,7 +14696,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -14737,7 +14734,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -14769,7 +14766,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -14783,97 +14780,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -15092,7 +15089,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2">
         <v>750968674</v>
@@ -15101,7 +15098,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -15110,10 +15107,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -15191,7 +15188,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -15203,7 +15200,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -15241,7 +15238,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3">
         <v>750696767</v>
@@ -15250,7 +15247,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -15259,7 +15256,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="5">
         <v>243537</v>
@@ -15340,7 +15337,7 @@
         <v>138</v>
       </c>
       <c r="AH3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -15352,7 +15349,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -15396,7 +15393,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -15434,7 +15431,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -15466,7 +15463,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -15480,97 +15477,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -15818,7 +15815,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -15874,7 +15871,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -15927,7 +15924,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -15974,7 +15971,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -16009,7 +16006,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -16023,97 +16020,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
